--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H2">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N2">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q2">
-        <v>1.704268748911889</v>
+        <v>9.80566520775</v>
       </c>
       <c r="R2">
-        <v>15.338418740207</v>
+        <v>88.25098686974999</v>
       </c>
       <c r="S2">
-        <v>0.003907169501338311</v>
+        <v>0.01406765255624305</v>
       </c>
       <c r="T2">
-        <v>0.003907169501338311</v>
+        <v>0.01406765255624304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H3">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q3">
-        <v>35.23843522106933</v>
+        <v>82.17739581433334</v>
       </c>
       <c r="R3">
-        <v>317.145916989624</v>
+        <v>739.5965623289999</v>
       </c>
       <c r="S3">
-        <v>0.08078687088439128</v>
+        <v>0.1178954234924535</v>
       </c>
       <c r="T3">
-        <v>0.08078687088439128</v>
+        <v>0.1178954234924534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H4">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N4">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q4">
-        <v>91.27144885331356</v>
+        <v>240.351175390514</v>
       </c>
       <c r="R4">
-        <v>821.443039679822</v>
+        <v>2163.160578514625</v>
       </c>
       <c r="S4">
-        <v>0.2092469403844377</v>
+        <v>0.3448187099235287</v>
       </c>
       <c r="T4">
-        <v>0.2092469403844377</v>
+        <v>0.3448187099235286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H5">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I5">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J5">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N5">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O5">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P5">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q5">
-        <v>0.08325691460044445</v>
+        <v>0.9280470946805557</v>
       </c>
       <c r="R5">
-        <v>0.7493122314040001</v>
+        <v>8.352423852125</v>
       </c>
       <c r="S5">
-        <v>0.0001908729933058245</v>
+        <v>0.001331418502181612</v>
       </c>
       <c r="T5">
-        <v>0.0001908729933058245</v>
+        <v>0.001331418502181612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J6">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N6">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O6">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P6">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q6">
-        <v>2.654526281488</v>
+        <v>6.549230126303999</v>
       </c>
       <c r="R6">
-        <v>23.890736533392</v>
+        <v>58.94307113673599</v>
       </c>
       <c r="S6">
-        <v>0.006085709272174848</v>
+        <v>0.009395822922335428</v>
       </c>
       <c r="T6">
-        <v>0.006085709272174848</v>
+        <v>0.009395822922335428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J7">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O7">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P7">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q7">
         <v>54.88650335961599</v>
@@ -883,10 +883,10 @@
         <v>493.9785302365439</v>
       </c>
       <c r="S7">
-        <v>0.1258316049617838</v>
+        <v>0.07874266996999744</v>
       </c>
       <c r="T7">
-        <v>0.1258316049617838</v>
+        <v>0.07874266996999743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.333488</v>
       </c>
       <c r="I8">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J8">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N8">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O8">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P8">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q8">
-        <v>142.162120783648</v>
+        <v>160.531195529296</v>
       </c>
       <c r="R8">
-        <v>1279.459087052832</v>
+        <v>1444.780759763664</v>
       </c>
       <c r="S8">
-        <v>0.3259177890377193</v>
+        <v>0.2303053424014097</v>
       </c>
       <c r="T8">
-        <v>0.3259177890377192</v>
+        <v>0.2303053424014097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>7.333488</v>
       </c>
       <c r="I9">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J9">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N9">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O9">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P9">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q9">
-        <v>0.129678883136</v>
+        <v>0.619845146896</v>
       </c>
       <c r="R9">
-        <v>1.167109948224</v>
+        <v>5.578606322064</v>
       </c>
       <c r="S9">
-        <v>0.0002972989896576397</v>
+        <v>0.0008892579932582866</v>
       </c>
       <c r="T9">
-        <v>0.0002972989896576397</v>
+        <v>0.0008892579932582862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H10">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N10">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O10">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P10">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q10">
-        <v>1.255899396036444</v>
+        <v>3.718943568239999</v>
       </c>
       <c r="R10">
-        <v>11.303094564328</v>
+        <v>33.47049211416</v>
       </c>
       <c r="S10">
-        <v>0.002879247665648825</v>
+        <v>0.005335365310343861</v>
       </c>
       <c r="T10">
-        <v>0.002879247665648825</v>
+        <v>0.00533536531034386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H11">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I11">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J11">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O11">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P11">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q11">
-        <v>25.96769408561066</v>
+        <v>31.16699287029333</v>
       </c>
       <c r="R11">
-        <v>233.709246770496</v>
+        <v>280.5029358326399</v>
       </c>
       <c r="S11">
-        <v>0.059532971203139</v>
+        <v>0.04471358318206302</v>
       </c>
       <c r="T11">
-        <v>0.059532971203139</v>
+        <v>0.044713583182063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H12">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I12">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J12">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N12">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O12">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P12">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q12">
-        <v>67.25920284780977</v>
+        <v>91.15673836498223</v>
       </c>
       <c r="R12">
-        <v>605.3328256302881</v>
+        <v>820.41064528484</v>
       </c>
       <c r="S12">
-        <v>0.1541969869594057</v>
+        <v>0.1307775960437029</v>
       </c>
       <c r="T12">
-        <v>0.1541969869594057</v>
+        <v>0.1307775960437028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H13">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I13">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J13">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N13">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O13">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P13">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q13">
-        <v>0.06135318084622222</v>
+        <v>0.3519755876488889</v>
       </c>
       <c r="R13">
-        <v>0.552178627616</v>
+        <v>3.16778028884</v>
       </c>
       <c r="S13">
-        <v>0.0001406569692517707</v>
+        <v>0.0005049601603173847</v>
       </c>
       <c r="T13">
-        <v>0.0001406569692517707</v>
+        <v>0.0005049601603173846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H14">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I14">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J14">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N14">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O14">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P14">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q14">
-        <v>0.1795394421686667</v>
+        <v>0.435247891344</v>
       </c>
       <c r="R14">
-        <v>1.615854979518</v>
+        <v>3.917231022096</v>
       </c>
       <c r="S14">
-        <v>0.0004116082238652697</v>
+        <v>0.0006244263883724598</v>
       </c>
       <c r="T14">
-        <v>0.0004116082238652697</v>
+        <v>0.0006244263883724597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H15">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I15">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J15">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O15">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P15">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q15">
-        <v>3.712260174064</v>
+        <v>3.647640163776</v>
       </c>
       <c r="R15">
-        <v>33.410341566576</v>
+        <v>32.828761473984</v>
       </c>
       <c r="S15">
-        <v>0.008510647010570511</v>
+        <v>0.005233070208601654</v>
       </c>
       <c r="T15">
-        <v>0.008510647010570509</v>
+        <v>0.005233070208601652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H16">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I16">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J16">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N16">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O16">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P16">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q16">
-        <v>9.615164875558667</v>
+        <v>10.668561495256</v>
       </c>
       <c r="R16">
-        <v>86.53648388002802</v>
+        <v>96.01705345730402</v>
       </c>
       <c r="S16">
-        <v>0.02204351806374904</v>
+        <v>0.01530560275212699</v>
       </c>
       <c r="T16">
-        <v>0.02204351806374904</v>
+        <v>0.01530560275212699</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H17">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I17">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J17">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N17">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O17">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P17">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q17">
-        <v>0.008770858477333334</v>
+        <v>0.04119358885600001</v>
       </c>
       <c r="R17">
-        <v>0.07893772629600002</v>
+        <v>0.370742299704</v>
       </c>
       <c r="S17">
-        <v>2.010787956129043E-05</v>
+        <v>5.909819306424237E-05</v>
       </c>
       <c r="T17">
-        <v>2.010787956129043E-05</v>
+        <v>5.909819306424235E-05</v>
       </c>
     </row>
   </sheetData>
